--- a/Jogos_do_Dia/2023-04-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -653,7 +653,7 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="N2" t="n">
         <v>2</v>
@@ -680,10 +680,10 @@
         <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="X2" t="n">
         <v>2.01</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H3" t="n">
-        <v>2.45</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
         <v>1.04</v>
@@ -763,10 +763,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -790,10 +790,10 @@
         <v>1.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="X3" t="n">
         <v>1.74</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>6.5</v>
+        <v>5.87</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="N4" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -900,10 +900,10 @@
         <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>1.75</v>
@@ -915,28 +915,28 @@
         <v>3.25</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -983,10 +983,10 @@
         <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="N5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1010,7 +1010,7 @@
         <v>2.15</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>1.35</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AD5" t="n">
         <v>1.11</v>
@@ -1123,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="X6" t="n">
         <v>1.02</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="G7" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
-        <v>8.5</v>
+        <v>8.07</v>
       </c>
       <c r="I7" t="n">
         <v>1.02</v>
@@ -1203,10 +1203,10 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="N7" t="n">
-        <v>2.23</v>
+        <v>2.03</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1230,10 +1230,10 @@
         <v>3.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="X7" t="n">
         <v>1.61</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG7" t="n">
         <v>1.7</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>2.62</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>1.01</v>
@@ -1313,10 +1313,10 @@
         <v>3.64</v>
       </c>
       <c r="M8" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1340,10 +1340,10 @@
         <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X8" t="n">
         <v>1.68</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,7 +1423,7 @@
         <v>4.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="N9" t="n">
         <v>2.1</v>
@@ -1450,10 +1450,10 @@
         <v>1.88</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="X9" t="n">
         <v>1.66</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>4.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N10" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
@@ -1560,10 +1560,10 @@
         <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="X10" t="n">
         <v>1.44</v>
@@ -1670,10 +1670,10 @@
         <v>1.61</v>
       </c>
       <c r="V11" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>1.62</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
         <v>1.07</v>
@@ -1753,10 +1753,10 @@
         <v>3.17</v>
       </c>
       <c r="M12" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -1780,10 +1780,10 @@
         <v>1.49</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="X12" t="n">
         <v>1.16</v>
@@ -1890,10 +1890,10 @@
         <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="X13" t="n">
         <v>1.31</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2000,10 +2000,10 @@
         <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="X14" t="n">
         <v>1.44</v>
@@ -2110,10 +2110,10 @@
         <v>2.45</v>
       </c>
       <c r="V15" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="X15" t="n">
         <v>2.01</v>
@@ -2220,10 +2220,10 @@
         <v>2.85</v>
       </c>
       <c r="V16" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="W16" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="X16" t="n">
         <v>1.82</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="I17" t="n">
         <v>1.04</v>
@@ -2303,10 +2303,10 @@
         <v>3.7</v>
       </c>
       <c r="M17" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="O17" t="n">
         <v>1.39</v>
@@ -2330,10 +2330,10 @@
         <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X17" t="n">
         <v>1.87</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2416,7 +2416,7 @@
         <v>2.3</v>
       </c>
       <c r="N18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2440,10 +2440,10 @@
         <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="X18" t="n">
         <v>1.57</v>
@@ -2505,10 +2505,10 @@
         <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="X19" t="n">
         <v>1.58</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="I20" t="n">
         <v>1.01</v>
@@ -2633,10 +2633,10 @@
         <v>3.48</v>
       </c>
       <c r="M20" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="O20" t="n">
         <v>1.35</v>
@@ -2660,10 +2660,10 @@
         <v>1.51</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
         <v>1.39</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF20" t="n">
         <v>1.9</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
         <v>1.32</v>
@@ -2770,10 +2770,10 @@
         <v>1.86</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X21" t="n">
         <v>1.41</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I22" t="n">
         <v>1.01</v>
@@ -2856,7 +2856,7 @@
         <v>1.7</v>
       </c>
       <c r="N22" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O22" t="n">
         <v>1.28</v>
@@ -2880,10 +2880,10 @@
         <v>1.81</v>
       </c>
       <c r="V22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W22" t="n">
         <v>1</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.5</v>
       </c>
       <c r="X22" t="n">
         <v>1.24</v>
@@ -2907,16 +2907,16 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="23">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="I23" t="n">
         <v>1.03</v>
@@ -2963,10 +2963,10 @@
         <v>3.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="N23" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -2990,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
@@ -3100,10 +3100,10 @@
         <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>1.55</v>
@@ -3210,10 +3210,10 @@
         <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="X25" t="n">
         <v>2.14</v>
@@ -3234,7 +3234,7 @@
         <v>3.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE25" t="n">
         <v>1.54</v>
@@ -3246,7 +3246,7 @@
         <v>2.41</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26">
@@ -3275,10 +3275,10 @@
         <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H26" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
         <v>1.05</v>
@@ -3293,10 +3293,10 @@
         <v>3.1</v>
       </c>
       <c r="M26" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N26" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="O26" t="n">
         <v>1.46</v>
@@ -3320,10 +3320,10 @@
         <v>1.35</v>
       </c>
       <c r="V26" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="X26" t="n">
         <v>1.47</v>
@@ -3353,10 +3353,10 @@
         <v>2.29</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27">
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I27" t="n">
         <v>1.04</v>
@@ -3403,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="N27" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="O27" t="n">
         <v>1.41</v>
@@ -3430,10 +3430,10 @@
         <v>1.36</v>
       </c>
       <c r="V27" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
         <v>1.42</v>
@@ -3454,7 +3454,7 @@
         <v>1.83</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE27" t="n">
         <v>1.47</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
         <v>1.03</v>
@@ -3513,10 +3513,10 @@
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="N28" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O28" t="n">
         <v>1.45</v>
@@ -3540,10 +3540,10 @@
         <v>1.93</v>
       </c>
       <c r="V28" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W28" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X28" t="n">
         <v>1.64</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="G29" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="I29" t="n">
         <v>1.08</v>
@@ -3623,10 +3623,10 @@
         <v>2.7</v>
       </c>
       <c r="M29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="N29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O29" t="n">
         <v>1.51</v>
@@ -3650,10 +3650,10 @@
         <v>1.42</v>
       </c>
       <c r="V29" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="W29" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
         <v>1.11</v>
@@ -3665,25 +3665,25 @@
         <v>2.48</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3733,10 +3733,10 @@
         <v>2.9</v>
       </c>
       <c r="M30" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O30" t="n">
         <v>1.47</v>
@@ -3760,10 +3760,10 @@
         <v>1.42</v>
       </c>
       <c r="V30" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="W30" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
         <v>1.59</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
         <v>1.28</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H32" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="I32" t="n">
         <v>1.04</v>
@@ -3953,10 +3953,10 @@
         <v>3.74</v>
       </c>
       <c r="M32" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="N32" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="O32" t="n">
         <v>1.36</v>
@@ -3980,10 +3980,10 @@
         <v>1.57</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
         <v>1.36</v>
@@ -4045,10 +4045,10 @@
         <v>3.6</v>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I33" t="n">
         <v>1.05</v>
@@ -4063,10 +4063,10 @@
         <v>3.74</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="N33" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="O33" t="n">
         <v>1.36</v>
@@ -4090,10 +4090,10 @@
         <v>1.28</v>
       </c>
       <c r="V33" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X33" t="n">
         <v>0.9399999999999999</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I34" t="n">
         <v>1.01</v>
@@ -4173,10 +4173,10 @@
         <v>3.55</v>
       </c>
       <c r="M34" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="N34" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="O34" t="n">
         <v>1.36</v>
@@ -4200,10 +4200,10 @@
         <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="W34" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X34" t="n">
         <v>1.43</v>
@@ -4224,19 +4224,19 @@
         <v>3.32</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AE34" t="n">
         <v>1.88</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.25</v>
       </c>
       <c r="I35" t="n">
         <v>1.05</v>
@@ -4283,10 +4283,10 @@
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N35" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O35" t="n">
         <v>1.44</v>
@@ -4310,10 +4310,10 @@
         <v>1.55</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="W35" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="X35" t="n">
         <v>1.45</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I36" t="n">
         <v>1.05</v>
@@ -4393,10 +4393,10 @@
         <v>3.2</v>
       </c>
       <c r="M36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N36" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O36" t="n">
         <v>1.41</v>
@@ -4420,10 +4420,10 @@
         <v>1.55</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="X36" t="n">
         <v>1.51</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="G37" t="n">
         <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4530,10 +4530,10 @@
         <v>1.42</v>
       </c>
       <c r="V37" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W37" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="X37" t="n">
         <v>1.49</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="I38" t="n">
         <v>1.06</v>
@@ -4613,10 +4613,10 @@
         <v>3.1</v>
       </c>
       <c r="M38" t="n">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="N38" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -4640,10 +4640,10 @@
         <v>1.98</v>
       </c>
       <c r="V38" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W38" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="X38" t="n">
         <v>1.81</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G39" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H39" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="I39" t="n">
         <v>1.02</v>
@@ -4750,10 +4750,10 @@
         <v>2.6</v>
       </c>
       <c r="V39" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="W39" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="X39" t="n">
         <v>1.57</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
         <v>1.07</v>
@@ -4833,10 +4833,10 @@
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="N40" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -4860,10 +4860,10 @@
         <v>1.85</v>
       </c>
       <c r="V40" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="W40" t="n">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="X40" t="n">
         <v>1.55</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="G41" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H41" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
         <v>1.03</v>
@@ -4943,10 +4943,10 @@
         <v>4.3</v>
       </c>
       <c r="M41" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="N41" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
@@ -4970,10 +4970,10 @@
         <v>1.83</v>
       </c>
       <c r="V41" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="W41" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
         <v>1.81</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H42" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I42" t="n">
         <v>1.02</v>
@@ -5053,10 +5053,10 @@
         <v>4.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="N42" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="O42" t="n">
         <v>1.3</v>
@@ -5080,10 +5080,10 @@
         <v>1.38</v>
       </c>
       <c r="V42" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="W42" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="X42" t="n">
         <v>1.92</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I43" t="n">
         <v>1.04</v>
@@ -5163,10 +5163,10 @@
         <v>3.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="N43" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O43" t="n">
         <v>1.4</v>
@@ -5190,10 +5190,10 @@
         <v>1.4</v>
       </c>
       <c r="V43" t="n">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="W43" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="X43" t="n">
         <v>1.3</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.67</v>
+        <v>2.23</v>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
-        <v>4.6</v>
+        <v>2.86</v>
       </c>
       <c r="I44" t="n">
         <v>1.05</v>
@@ -5273,10 +5273,10 @@
         <v>3.65</v>
       </c>
       <c r="M44" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="N44" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O44" t="n">
         <v>1.4</v>
@@ -5300,10 +5300,10 @@
         <v>1.78</v>
       </c>
       <c r="V44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
         <v>1.62</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="I45" t="n">
         <v>1.05</v>
@@ -5383,10 +5383,10 @@
         <v>3.5</v>
       </c>
       <c r="M45" t="n">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="N45" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="O45" t="n">
         <v>1.4</v>
@@ -5410,10 +5410,10 @@
         <v>1.57</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W45" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="X45" t="n">
         <v>1.23</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H46" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I46" t="n">
         <v>1.01</v>
@@ -5493,10 +5493,10 @@
         <v>3.4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="N46" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O46" t="n">
         <v>1.37</v>
@@ -5520,7 +5520,7 @@
         <v>2.15</v>
       </c>
       <c r="V46" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I47" t="n">
         <v>1.05</v>
@@ -5600,7 +5600,7 @@
         <v>1.5</v>
       </c>
       <c r="L47" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M47" t="n">
         <v>2.28</v>
@@ -5630,10 +5630,10 @@
         <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="W47" t="n">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="X47" t="n">
         <v>1.71</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="I48" t="n">
         <v>1.08</v>
@@ -5713,10 +5713,10 @@
         <v>2.9</v>
       </c>
       <c r="M48" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="N48" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -5740,10 +5740,10 @@
         <v>1.34</v>
       </c>
       <c r="V48" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="W48" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X48" t="n">
         <v>1.36</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
         <v>1.03</v>
@@ -5823,10 +5823,10 @@
         <v>4.2</v>
       </c>
       <c r="M49" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="N49" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
         <v>1.33</v>
@@ -5865,13 +5865,13 @@
         <v>3.28</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AB49" t="n">
         <v>6</v>
       </c>
       <c r="AC49" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AD49" t="n">
         <v>1.23</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
         <v>1.02</v>
@@ -5936,7 +5936,7 @@
         <v>1.95</v>
       </c>
       <c r="N50" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O50" t="n">
         <v>1.4</v>
@@ -5960,10 +5960,10 @@
         <v>1.88</v>
       </c>
       <c r="V50" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="W50" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="X50" t="n">
         <v>1.68</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
         <v>1.05</v>
@@ -6043,10 +6043,10 @@
         <v>3.6</v>
       </c>
       <c r="M51" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="N51" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O51" t="n">
         <v>1.36</v>
@@ -6070,10 +6070,10 @@
         <v>1.87</v>
       </c>
       <c r="V51" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="W51" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="X51" t="n">
         <v>1.37</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G52" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I52" t="n">
         <v>1.01</v>
@@ -6180,10 +6180,10 @@
         <v>2.17</v>
       </c>
       <c r="V52" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W52" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X52" t="n">
         <v>1.47</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G53" t="n">
         <v>3.3</v>
       </c>
       <c r="H53" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I53" t="n">
         <v>1.07</v>
@@ -6263,10 +6263,10 @@
         <v>2.7</v>
       </c>
       <c r="M53" t="n">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="N53" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O53" t="n">
         <v>1.5</v>
@@ -6290,10 +6290,10 @@
         <v>1.8</v>
       </c>
       <c r="V53" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="W53" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="X53" t="n">
         <v>1.33</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="G54" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="I54" t="n">
         <v>1.03</v>
@@ -6373,10 +6373,10 @@
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="N54" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="O54" t="n">
         <v>1.33</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="G55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="I55" t="n">
         <v>1.06</v>
@@ -6483,10 +6483,10 @@
         <v>3.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N55" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O55" t="n">
         <v>1.41</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="G56" t="n">
-        <v>5.25</v>
+        <v>5.8</v>
       </c>
       <c r="H56" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="I56" t="n">
         <v>1.01</v>
@@ -6593,10 +6593,10 @@
         <v>4.75</v>
       </c>
       <c r="M56" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="N56" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="O56" t="n">
         <v>1.25</v>
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="G57" t="n">
         <v>3.8</v>
       </c>
       <c r="H57" t="n">
-        <v>4.33</v>
+        <v>4.65</v>
       </c>
       <c r="I57" t="n">
         <v>1.03</v>
@@ -6703,10 +6703,10 @@
         <v>4.6</v>
       </c>
       <c r="M57" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="N57" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="O57" t="n">
         <v>1.3</v>
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="G58" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H58" t="n">
-        <v>8.5</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I58" t="n">
         <v>1.02</v>
@@ -6813,10 +6813,10 @@
         <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="N58" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="O58" t="n">
         <v>1.29</v>
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="I59" t="n">
         <v>1.05</v>
@@ -6923,7 +6923,7 @@
         <v>3.4</v>
       </c>
       <c r="M59" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="N59" t="n">
         <v>1.85</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
         <v>1.02</v>
@@ -7033,10 +7033,10 @@
         <v>3.8</v>
       </c>
       <c r="M60" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="N60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O60" t="n">
         <v>1.33</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="I61" t="n">
         <v>1.07</v>
@@ -7143,10 +7143,10 @@
         <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="N61" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="O61" t="n">
         <v>1.47</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="I62" t="n">
         <v>1.07</v>
@@ -7253,10 +7253,10 @@
         <v>2.97</v>
       </c>
       <c r="M62" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="N62" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="O62" t="n">
         <v>1.44</v>
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H63" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="I63" t="n">
         <v>1.05</v>
@@ -7363,10 +7363,10 @@
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="N63" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O63" t="n">
         <v>1.44</v>
@@ -7452,13 +7452,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="G64" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H64" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I64" t="n">
         <v>1.01</v>
@@ -7473,10 +7473,10 @@
         <v>4.35</v>
       </c>
       <c r="M64" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="N64" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
@@ -7521,7 +7521,7 @@
         <v>6.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="AD64" t="n">
         <v>1.42</v>
@@ -7562,13 +7562,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="H65" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="I65" t="n">
         <v>1.04</v>
@@ -7583,10 +7583,10 @@
         <v>3.75</v>
       </c>
       <c r="M65" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="N65" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
         <v>1.35</v>
@@ -7625,28 +7625,28 @@
         <v>3.02</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG65" t="n">
         <v>1.98</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="66">
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.41</v>
+        <v>1.95</v>
       </c>
       <c r="G66" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="H66" t="n">
-        <v>2.53</v>
+        <v>3.5</v>
       </c>
       <c r="I66" t="n">
         <v>1.05</v>
@@ -7693,10 +7693,10 @@
         <v>3.4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O66" t="n">
         <v>1.37</v>
@@ -7744,7 +7744,7 @@
         <v>3.15</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE66" t="n">
         <v>1.33</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="G67" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H67" t="n">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="I67" t="n">
         <v>1.01</v>
@@ -7803,10 +7803,10 @@
         <v>4.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="N67" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="O67" t="n">
         <v>1.3</v>
@@ -7892,13 +7892,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="G68" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I68" t="n">
         <v>1.03</v>
@@ -7913,10 +7913,10 @@
         <v>4.1</v>
       </c>
       <c r="M68" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="N68" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="O68" t="n">
         <v>1.28</v>
@@ -7964,7 +7964,7 @@
         <v>5</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE68" t="n">
         <v>1.24</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G69" t="n">
         <v>3.25</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
         <v>1.05</v>
@@ -8074,7 +8074,7 @@
         <v>2.1</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE69" t="n">
         <v>1.3</v>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="G70" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I70" t="n">
         <v>1.02</v>
@@ -8133,10 +8133,10 @@
         <v>4.6</v>
       </c>
       <c r="M70" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="N70" t="n">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="O70" t="n">
         <v>1.23</v>
@@ -8184,7 +8184,7 @@
         <v>10.75</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE70" t="n">
         <v>1.23</v>
@@ -8222,13 +8222,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G71" t="n">
         <v>3.5</v>
       </c>
       <c r="H71" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="I71" t="n">
         <v>1.05</v>
@@ -8243,10 +8243,10 @@
         <v>3.6</v>
       </c>
       <c r="M71" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="N71" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="O71" t="n">
         <v>1.4</v>
@@ -8332,13 +8332,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H72" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I72" t="n">
         <v>1.03</v>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="G73" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="H73" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I73" t="n">
         <v>1.05</v>
@@ -8463,10 +8463,10 @@
         <v>3.6</v>
       </c>
       <c r="M73" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="N73" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O73" t="n">
         <v>1.4</v>
@@ -8552,13 +8552,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.37</v>
+        <v>2.07</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H74" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="I74" t="n">
         <v>1.06</v>
@@ -8573,10 +8573,10 @@
         <v>3.07</v>
       </c>
       <c r="M74" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="N74" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O74" t="n">
         <v>1.45</v>
@@ -8662,25 +8662,25 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G75" t="n">
         <v>3.1</v>
       </c>
       <c r="H75" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="M75" t="n">
         <v>2.15</v>
@@ -8689,25 +8689,25 @@
         <v>1.67</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R75" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V75" t="n">
         <v>1.33</v>
@@ -8734,19 +8734,19 @@
         <v>2.2</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE75" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG75" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="76">
@@ -8772,13 +8772,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="G76" t="n">
-        <v>3.78</v>
+        <v>4.1</v>
       </c>
       <c r="H76" t="n">
-        <v>4.07</v>
+        <v>5.25</v>
       </c>
       <c r="I76" t="n">
         <v>1.05</v>
@@ -8793,10 +8793,10 @@
         <v>3.5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="N76" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="O76" t="n">
         <v>1.34</v>
@@ -8844,7 +8844,7 @@
         <v>5.25</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE76" t="n">
         <v>1.25</v>
@@ -8882,13 +8882,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.4</v>
+        <v>6.25</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="I77" t="n">
         <v>1.03</v>
@@ -8903,10 +8903,10 @@
         <v>4.2</v>
       </c>
       <c r="M77" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="N77" t="n">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="O77" t="n">
         <v>1.29</v>
@@ -8992,13 +8992,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="G78" t="n">
-        <v>5.4</v>
+        <v>6.25</v>
       </c>
       <c r="H78" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I78" t="n">
         <v>1.03</v>
@@ -9013,10 +9013,10 @@
         <v>4.1</v>
       </c>
       <c r="M78" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="N78" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="O78" t="n">
         <v>1.27</v>
@@ -9064,10 +9064,10 @@
         <v>9.75</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF78" t="n">
         <v>1.37</v>
@@ -9102,13 +9102,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="G79" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="I79" t="n">
         <v>1.06</v>
@@ -9123,10 +9123,10 @@
         <v>3.2</v>
       </c>
       <c r="M79" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="N79" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="O79" t="n">
         <v>1.41</v>
@@ -9174,7 +9174,7 @@
         <v>2.8</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AE79" t="n">
         <v>1.22</v>
@@ -9212,13 +9212,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="G80" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.45</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2.97</v>
       </c>
       <c r="I80" t="n">
         <v>1.05</v>
@@ -9233,10 +9233,10 @@
         <v>3.5</v>
       </c>
       <c r="M80" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="N80" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="O80" t="n">
         <v>1.35</v>
@@ -9284,7 +9284,7 @@
         <v>3.7</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AE80" t="n">
         <v>1.22</v>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="G81" t="n">
-        <v>9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>17</v>
+        <v>15.4</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -9343,10 +9343,10 @@
         <v>8.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="N81" t="n">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="O81" t="n">
         <v>1.17</v>
@@ -9432,13 +9432,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="G82" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="H82" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -9453,10 +9453,10 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N82" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -9542,13 +9542,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="G83" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H83" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="I83" t="n">
         <v>1.03</v>
@@ -9652,13 +9652,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G84" t="n">
         <v>3.2</v>
       </c>
       <c r="H84" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="I84" t="n">
         <v>1.1</v>
@@ -9673,10 +9673,10 @@
         <v>2.28</v>
       </c>
       <c r="M84" t="n">
-        <v>2.73</v>
+        <v>2.64</v>
       </c>
       <c r="N84" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="O84" t="n">
         <v>1.61</v>
@@ -9762,13 +9762,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H85" t="n">
-        <v>4.33</v>
+        <v>3.55</v>
       </c>
       <c r="I85" t="n">
         <v>1.04</v>
@@ -9783,10 +9783,10 @@
         <v>3.75</v>
       </c>
       <c r="M85" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="N85" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="O85" t="n">
         <v>1.36</v>
@@ -9875,10 +9875,10 @@
         <v>1.75</v>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H86" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="I86" t="n">
         <v>1.03</v>
@@ -9893,10 +9893,10 @@
         <v>3.2</v>
       </c>
       <c r="M86" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N86" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O86" t="n">
         <v>1.4</v>
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="G87" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="I87" t="n">
         <v>1.07</v>
@@ -10003,10 +10003,10 @@
         <v>2.8</v>
       </c>
       <c r="M87" t="n">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
       <c r="N87" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="O87" t="n">
         <v>1.49</v>
@@ -10092,13 +10092,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H88" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="I88" t="n">
         <v>1.08</v>
@@ -10113,10 +10113,10 @@
         <v>2.95</v>
       </c>
       <c r="M88" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N88" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O88" t="n">
         <v>1.5</v>
@@ -10202,10 +10202,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>1.85</v>
@@ -10274,7 +10274,7 @@
         <v>1.75</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE89" t="n">
         <v>1.31</v>
@@ -10312,13 +10312,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G90" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H90" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="I90" t="n">
         <v>1.02</v>
@@ -10333,10 +10333,10 @@
         <v>4.75</v>
       </c>
       <c r="M90" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="N90" t="n">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="O90" t="n">
         <v>1.25</v>
@@ -10375,19 +10375,19 @@
         <v>3.81</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC90" t="n">
         <v>4.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE90" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF90" t="n">
         <v>1.54</v>
@@ -10422,13 +10422,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="H91" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="I91" t="n">
         <v>1.05</v>
@@ -10443,10 +10443,10 @@
         <v>3.2</v>
       </c>
       <c r="M91" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N91" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O91" t="n">
         <v>1.4</v>
@@ -10485,28 +10485,28 @@
         <v>3.18</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE91" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG91" t="n">
         <v>1.88</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="92">
@@ -10532,13 +10532,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="G92" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="H92" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="I92" t="n">
         <v>1.08</v>
@@ -10553,10 +10553,10 @@
         <v>2.7</v>
       </c>
       <c r="M92" t="n">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="N92" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="O92" t="n">
         <v>1.51</v>
@@ -10773,10 +10773,10 @@
         <v>4.5</v>
       </c>
       <c r="M94" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="N94" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="O94" t="n">
         <v>1.29</v>
@@ -11192,10 +11192,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G98" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H98" t="n">
         <v>2.8</v>
@@ -11213,10 +11213,10 @@
         <v>2.65</v>
       </c>
       <c r="M98" t="n">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="N98" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="O98" t="n">
         <v>1.48</v>
@@ -11302,49 +11302,49 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="H99" t="n">
-        <v>5.2</v>
+        <v>3.77</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K99" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="L99" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M99" t="n">
-        <v>2.9</v>
+        <v>3.01</v>
       </c>
       <c r="N99" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="R99" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S99" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="T99" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="U99" t="n">
         <v>2</v>
@@ -11412,13 +11412,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>4.35</v>
       </c>
       <c r="H100" t="n">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -11433,10 +11433,10 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="N100" t="n">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -11522,13 +11522,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -11543,10 +11543,10 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -11632,13 +11632,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>5.65</v>
       </c>
       <c r="H102" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I102" t="n">
         <v>1.02</v>
@@ -11742,13 +11742,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="G103" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H103" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I103" t="n">
         <v>1.02</v>
@@ -11763,10 +11763,10 @@
         <v>8</v>
       </c>
       <c r="M103" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="N103" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="O103" t="n">
         <v>1.18</v>
@@ -11852,13 +11852,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="G104" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H104" t="n">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="I104" t="n">
         <v>1.01</v>
@@ -11873,7 +11873,7 @@
         <v>3.4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="N104" t="n">
         <v>1.88</v>
@@ -11962,13 +11962,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G105" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I105" t="n">
         <v>1.06</v>
@@ -11983,10 +11983,10 @@
         <v>3.3</v>
       </c>
       <c r="M105" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N105" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="O105" t="n">
         <v>1.39</v>
@@ -12072,13 +12072,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="G106" t="n">
         <v>3.5</v>
       </c>
       <c r="H106" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="I106" t="n">
         <v>1.05</v>
@@ -12093,10 +12093,10 @@
         <v>3.5</v>
       </c>
       <c r="M106" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="N106" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="O106" t="n">
         <v>1.36</v>
@@ -12182,10 +12182,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H107" t="n">
         <v>4.75</v>
@@ -12203,10 +12203,10 @@
         <v>4.75</v>
       </c>
       <c r="M107" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="N107" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="O107" t="n">
         <v>1.25</v>
@@ -12402,10 +12402,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>3.64</v>
       </c>
       <c r="H109" t="n">
         <v>1.95</v>
@@ -12423,10 +12423,10 @@
         <v>3.6</v>
       </c>
       <c r="M109" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="N109" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O109" t="n">
         <v>1.36</v>
@@ -12512,13 +12512,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G110" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H110" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I110" t="n">
         <v>1.03</v>
@@ -12536,7 +12536,7 @@
         <v>2</v>
       </c>
       <c r="N110" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="O110" t="n">
         <v>1.4</v>
@@ -12622,52 +12622,52 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="G111" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H111" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="K111" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="L111" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="M111" t="n">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="N111" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="R111" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U111" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V111" t="n">
         <v>1.89</v>
@@ -12753,10 +12753,10 @@
         <v>2.45</v>
       </c>
       <c r="M112" t="n">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="N112" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O112" t="n">
         <v>1.62</v>
@@ -13062,13 +13062,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H115" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="I115" t="n">
         <v>1.01</v>
@@ -13083,10 +13083,10 @@
         <v>4.3</v>
       </c>
       <c r="M115" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="N115" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O115" t="n">
         <v>1.32</v>
@@ -13172,13 +13172,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="G116" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H116" t="n">
-        <v>9</v>
+        <v>6.05</v>
       </c>
       <c r="I116" t="n">
         <v>1.01</v>
@@ -13193,10 +13193,10 @@
         <v>4.33</v>
       </c>
       <c r="M116" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="N116" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="O116" t="n">
         <v>1.33</v>
@@ -13291,16 +13291,16 @@
         <v>1.95</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M117" t="n">
         <v>1.85</v>
@@ -13309,10 +13309,10 @@
         <v>1.95</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q117" t="n">
         <v>1.73</v>
@@ -13321,13 +13321,13 @@
         <v>2</v>
       </c>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U117" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V117" t="n">
         <v>2.2</v>
@@ -13354,19 +13354,19 @@
         <v>1.86</v>
       </c>
       <c r="AD117" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AE117" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF117" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AG117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH117" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="118">
@@ -13502,13 +13502,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="G119" t="n">
         <v>3.1</v>
       </c>
       <c r="H119" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I119" t="n">
         <v>1.09</v>
@@ -13517,10 +13517,10 @@
         <v>6.5</v>
       </c>
       <c r="K119" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L119" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M119" t="n">
         <v>2.55</v>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="G120" t="n">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="H120" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I120" t="n">
         <v>1.12</v>
@@ -13630,13 +13630,13 @@
         <v>1.53</v>
       </c>
       <c r="L120" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="M120" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="N120" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="O120" t="n">
         <v>1.6</v>
@@ -13722,13 +13722,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="G121" t="n">
         <v>3.6</v>
       </c>
       <c r="H121" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I121" t="n">
         <v>1.03</v>
@@ -13832,13 +13832,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="G122" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="H122" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I122" t="n">
         <v>1.09</v>
@@ -13853,10 +13853,10 @@
         <v>2.55</v>
       </c>
       <c r="M122" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="N122" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O122" t="n">
         <v>1.53</v>
@@ -13942,13 +13942,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H123" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I123" t="n">
         <v>1.01</v>
@@ -13963,10 +13963,10 @@
         <v>5.5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="N123" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O123" t="n">
         <v>1.25</v>
@@ -14052,13 +14052,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="H124" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I124" t="n">
         <v>1.02</v>
@@ -14272,13 +14272,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.95</v>
+        <v>2.24</v>
       </c>
       <c r="G126" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="H126" t="n">
-        <v>3.67</v>
+        <v>3.38</v>
       </c>
       <c r="I126" t="n">
         <v>1.1</v>
@@ -14287,16 +14287,16 @@
         <v>6.9</v>
       </c>
       <c r="K126" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="L126" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="M126" t="n">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="N126" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="O126" t="n">
         <v>1.6</v>
@@ -14382,13 +14382,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.71</v>
+        <v>3.4</v>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="I127" t="n">
         <v>1.08</v>
@@ -14403,10 +14403,10 @@
         <v>3</v>
       </c>
       <c r="M127" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="N127" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="O127" t="n">
         <v>1.46</v>
@@ -14602,13 +14602,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="G129" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="H129" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="I129" t="n">
         <v>1.07</v>
@@ -14623,10 +14623,10 @@
         <v>2.9</v>
       </c>
       <c r="M129" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="N129" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="O129" t="n">
         <v>1.43</v>
@@ -14665,13 +14665,13 @@
         <v>1.76</v>
       </c>
       <c r="AA129" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB129" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC129" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AD129" t="n">
         <v>1.37</v>
@@ -14712,13 +14712,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="G130" t="n">
-        <v>3.38</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I130" t="n">
         <v>1.02</v>
@@ -14733,10 +14733,10 @@
         <v>4.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="N130" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="O130" t="n">
         <v>1.3</v>
@@ -14775,19 +14775,19 @@
         <v>3.25</v>
       </c>
       <c r="AA130" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB130" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC130" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD130" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE130" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF130" t="n">
         <v>1.69</v>
@@ -14822,13 +14822,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="G131" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H131" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="I131" t="n">
         <v>1.03</v>
@@ -15042,13 +15042,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H133" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I133" t="n">
         <v>1.06</v>
@@ -15063,10 +15063,10 @@
         <v>2.95</v>
       </c>
       <c r="M133" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="N133" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="O133" t="n">
         <v>1.4</v>
@@ -15262,13 +15262,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="G135" t="n">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="H135" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
         <v>1.09</v>
@@ -15277,16 +15277,16 @@
         <v>6.5</v>
       </c>
       <c r="K135" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L135" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M135" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="N135" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="O135" t="n">
         <v>1.57</v>
@@ -15325,19 +15325,19 @@
         <v>2.12</v>
       </c>
       <c r="AA135" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AB135" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC135" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AD135" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE135" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF135" t="n">
         <v>1.57</v>
@@ -15545,16 +15545,16 @@
         <v>2.46</v>
       </c>
       <c r="AA137" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB137" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC137" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AD137" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE137" t="n">
         <v>1.68</v>
@@ -15563,10 +15563,10 @@
         <v>2.1</v>
       </c>
       <c r="AG137" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH137" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="138">
@@ -15592,13 +15592,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H138" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I138" t="n">
         <v>1.01</v>
@@ -15702,13 +15702,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H139" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I139" t="n">
         <v>1.07</v>
@@ -15827,10 +15827,10 @@
         <v>7</v>
       </c>
       <c r="K140" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L140" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="M140" t="n">
         <v>2.45</v>
@@ -15875,16 +15875,16 @@
         <v>2.83</v>
       </c>
       <c r="AA140" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AB140" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC140" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AD140" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE140" t="n">
         <v>1.78</v>
@@ -15893,10 +15893,10 @@
         <v>2.22</v>
       </c>
       <c r="AG140" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH140" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="141">
@@ -16032,13 +16032,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="G142" t="n">
-        <v>3.47</v>
+        <v>3.25</v>
       </c>
       <c r="H142" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="I142" t="n">
         <v>1.02</v>
@@ -16053,10 +16053,10 @@
         <v>4.2</v>
       </c>
       <c r="M142" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="N142" t="n">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="O142" t="n">
         <v>1.3</v>
@@ -16104,19 +16104,19 @@
         <v>2.67</v>
       </c>
       <c r="AD142" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE142" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG142" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH142" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="143">
@@ -16163,10 +16163,10 @@
         <v>2.3</v>
       </c>
       <c r="M143" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="N143" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="O143" t="n">
         <v>1.62</v>
@@ -16205,13 +16205,13 @@
         <v>2.37</v>
       </c>
       <c r="AA143" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB143" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC143" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD143" t="n">
         <v>1.58</v>
@@ -16223,10 +16223,10 @@
         <v>2.51</v>
       </c>
       <c r="AG143" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AH143" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="144">
@@ -16315,13 +16315,13 @@
         <v>2.88</v>
       </c>
       <c r="AA144" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AB144" t="n">
         <v>9</v>
       </c>
       <c r="AC144" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AD144" t="n">
         <v>1.17</v>
@@ -16365,10 +16365,10 @@
         <v>2.2</v>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H145" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I145" t="n">
         <v>1.11</v>
@@ -16377,16 +16377,16 @@
         <v>6</v>
       </c>
       <c r="K145" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L145" t="n">
-        <v>2.41</v>
+        <v>2.35</v>
       </c>
       <c r="M145" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="N145" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="O145" t="n">
         <v>1.58</v>
@@ -16425,28 +16425,28 @@
         <v>2.86</v>
       </c>
       <c r="AA145" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB145" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC145" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AD145" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE145" t="n">
         <v>1.85</v>
       </c>
       <c r="AF145" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AG145" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH145" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="146">
@@ -16472,13 +16472,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G146" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H146" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="I146" t="n">
         <v>1.03</v>
@@ -16582,13 +16582,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
       </c>
       <c r="H147" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I147" t="n">
         <v>1.09</v>
@@ -16603,10 +16603,10 @@
         <v>2.55</v>
       </c>
       <c r="M147" t="n">
-        <v>2.41</v>
+        <v>2.59</v>
       </c>
       <c r="N147" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="O147" t="n">
         <v>1.55</v>
@@ -16713,10 +16713,10 @@
         <v>2.45</v>
       </c>
       <c r="M148" t="n">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="N148" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O148" t="n">
         <v>1.57</v>
@@ -16755,13 +16755,13 @@
         <v>2.56</v>
       </c>
       <c r="AA148" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AB148" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC148" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD148" t="n">
         <v>1.49</v>
@@ -16773,10 +16773,10 @@
         <v>2.29</v>
       </c>
       <c r="AG148" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH148" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="149">
@@ -16802,13 +16802,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="G149" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H149" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I149" t="n">
         <v>1.01</v>
@@ -16823,10 +16823,10 @@
         <v>4.5</v>
       </c>
       <c r="M149" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="N149" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="O149" t="n">
         <v>1.29</v>
@@ -16912,13 +16912,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2.23</v>
+        <v>3.2</v>
       </c>
       <c r="G150" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H150" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="I150" t="n">
         <v>1.06</v>
@@ -16933,10 +16933,10 @@
         <v>2.45</v>
       </c>
       <c r="M150" t="n">
-        <v>2.15</v>
+        <v>2.58</v>
       </c>
       <c r="N150" t="n">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="O150" t="n">
         <v>1.55</v>
@@ -17043,10 +17043,10 @@
         <v>2.3</v>
       </c>
       <c r="M151" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N151" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="O151" t="n">
         <v>1.57</v>
@@ -17106,7 +17106,7 @@
         <v>3.08</v>
       </c>
       <c r="AH151" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="152">
@@ -17263,10 +17263,10 @@
         <v>2.37</v>
       </c>
       <c r="M153" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="N153" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="O153" t="n">
         <v>1.57</v>
@@ -17326,7 +17326,7 @@
         <v>3.42</v>
       </c>
       <c r="AH153" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="154">
@@ -17373,10 +17373,10 @@
         <v>2.25</v>
       </c>
       <c r="M154" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="N154" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="O154" t="n">
         <v>1.62</v>
@@ -17415,28 +17415,28 @@
         <v>2.55</v>
       </c>
       <c r="AA154" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB154" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC154" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AD154" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE154" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF154" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG154" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AH154" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="155">
@@ -17477,10 +17477,10 @@
         <v>9.35</v>
       </c>
       <c r="K155" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="L155" t="n">
-        <v>2.94</v>
+        <v>2.5</v>
       </c>
       <c r="M155" t="n">
         <v>2.15</v>
@@ -17682,13 +17682,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="G157" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="H157" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="I157" t="n">
         <v>1.05</v>
@@ -17703,10 +17703,10 @@
         <v>3.3</v>
       </c>
       <c r="M157" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="N157" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O157" t="n">
         <v>1.38</v>
@@ -17745,13 +17745,13 @@
         <v>2.08</v>
       </c>
       <c r="AA157" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AB157" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC157" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AD157" t="n">
         <v>1.4</v>
@@ -17855,19 +17855,19 @@
         <v>2.39</v>
       </c>
       <c r="AA158" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AB158" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC158" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD158" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE158" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF158" t="n">
         <v>1.7</v>
@@ -18012,13 +18012,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G160" t="n">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="H160" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="I160" t="n">
         <v>1.05</v>
@@ -18033,10 +18033,10 @@
         <v>3.2</v>
       </c>
       <c r="M160" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="N160" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="O160" t="n">
         <v>1.4</v>
@@ -18143,10 +18143,10 @@
         <v>2.3</v>
       </c>
       <c r="M161" t="n">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="N161" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="O161" t="n">
         <v>1.57</v>
@@ -18625,19 +18625,19 @@
         <v>2.6</v>
       </c>
       <c r="AA165" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB165" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC165" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="AD165" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE165" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF165" t="n">
         <v>1.83</v>
@@ -18672,13 +18672,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="G166" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="H166" t="n">
-        <v>3.38</v>
+        <v>2.25</v>
       </c>
       <c r="I166" t="n">
         <v>1.03</v>
@@ -18693,10 +18693,10 @@
         <v>4.1</v>
       </c>
       <c r="M166" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="N166" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="O166" t="n">
         <v>1.33</v>
@@ -18735,13 +18735,13 @@
         <v>4.4</v>
       </c>
       <c r="AA166" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AB166" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC166" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AD166" t="n">
         <v>1.35</v>
@@ -18791,16 +18791,16 @@
         <v>6.5</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J167" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M167" t="n">
         <v>1.95</v>
@@ -18809,10 +18809,10 @@
         <v>1.75</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P167" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q167" t="n">
         <v>2.1</v>
@@ -18821,13 +18821,13 @@
         <v>1.67</v>
       </c>
       <c r="S167" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U167" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="V167" t="n">
         <v>3</v>
@@ -18845,28 +18845,28 @@
         <v>2.57</v>
       </c>
       <c r="AA167" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AB167" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC167" t="n">
         <v>4.1</v>
       </c>
       <c r="AD167" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE167" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF167" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG167" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH167" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="168">
@@ -18901,16 +18901,16 @@
         <v>2.7</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J168" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M168" t="n">
         <v>2.2</v>
@@ -18919,10 +18919,10 @@
         <v>1.6</v>
       </c>
       <c r="O168" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P168" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q168" t="n">
         <v>1.95</v>
@@ -18931,13 +18931,13 @@
         <v>1.8</v>
       </c>
       <c r="S168" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T168" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U168" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V168" t="n">
         <v>1</v>
@@ -18955,28 +18955,28 @@
         <v>2.91</v>
       </c>
       <c r="AA168" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AB168" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC168" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AD168" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE168" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF168" t="n">
         <v>2.1</v>
       </c>
       <c r="AG168" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH168" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="169">
@@ -19112,13 +19112,13 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -19133,10 +19133,10 @@
         <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N170" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O170" t="n">
         <v>0</v>
@@ -19552,13 +19552,13 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="G174" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="H174" t="n">
-        <v>3.72</v>
+        <v>3.85</v>
       </c>
       <c r="I174" t="n">
         <v>1.09</v>
@@ -19573,10 +19573,10 @@
         <v>2.6</v>
       </c>
       <c r="M174" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="N174" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="O174" t="n">
         <v>1.5</v>
@@ -19615,28 +19615,28 @@
         <v>2.83</v>
       </c>
       <c r="AA174" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB174" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC174" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AD174" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE174" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF174" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG174" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH174" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="175">
@@ -19662,13 +19662,13 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G175" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H175" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="I175" t="n">
         <v>1.04</v>
@@ -19683,10 +19683,10 @@
         <v>3.7</v>
       </c>
       <c r="M175" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="N175" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="O175" t="n">
         <v>1.34</v>
@@ -19725,13 +19725,13 @@
         <v>3</v>
       </c>
       <c r="AA175" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB175" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC175" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD175" t="n">
         <v>1.37</v>
@@ -19772,13 +19772,13 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="G176" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="H176" t="n">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="I176" t="n">
         <v>1.08</v>
@@ -19793,10 +19793,10 @@
         <v>2.56</v>
       </c>
       <c r="M176" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N176" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="O176" t="n">
         <v>1.5</v>
@@ -19882,13 +19882,13 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G177" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H177" t="n">
-        <v>5.95</v>
+        <v>6.3</v>
       </c>
       <c r="I177" t="n">
         <v>1.08</v>
@@ -19903,10 +19903,10 @@
         <v>2.65</v>
       </c>
       <c r="M177" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="N177" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="O177" t="n">
         <v>1.49</v>
@@ -20102,13 +20102,13 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="G179" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H179" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="I179" t="n">
         <v>1.04</v>
@@ -20123,10 +20123,10 @@
         <v>3.45</v>
       </c>
       <c r="M179" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="N179" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O179" t="n">
         <v>1.4</v>
@@ -20165,25 +20165,25 @@
         <v>2.69</v>
       </c>
       <c r="AA179" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AB179" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC179" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AD179" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE179" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF179" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AG179" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AH179" t="n">
         <v>0</v>
@@ -20275,25 +20275,25 @@
         <v>3.1</v>
       </c>
       <c r="AA180" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB180" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC180" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AD180" t="n">
         <v>0</v>
       </c>
       <c r="AE180" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF180" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG180" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH180" t="n">
         <v>0</v>
@@ -20435,28 +20435,28 @@
         <v>2.72</v>
       </c>
       <c r="G182" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J182" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="M182" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="N182" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O182" t="n">
         <v>1.5</v>
@@ -20471,13 +20471,13 @@
         <v>1.67</v>
       </c>
       <c r="S182" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="T182" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U182" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V182" t="n">
         <v>2</v>
@@ -20504,16 +20504,16 @@
         <v>0</v>
       </c>
       <c r="AD182" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE182" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF182" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG182" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH182" t="n">
         <v>0</v>
